--- a/module/Administracion/view/administracion/mensualidad/plantilla_reporte_entreno.xlsx
+++ b/module/Administracion/view/administracion/mensualidad/plantilla_reporte_entreno.xlsx
@@ -1,77 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gimnasio\module\Administracion\view\administracion\mensualidad\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA10397-43EC-4F1F-B415-5B490F920B41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20496" windowHeight="7692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="20" windowWidth="18900" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$10:$D$10</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>ID</t>
+    <t>REPORTE DE MENSUALIDAD</t>
+  </si>
+  <si>
+    <t>DESDE</t>
   </si>
   <si>
     <t>HASTA</t>
   </si>
   <si>
-    <t>DESDE</t>
+    <t>Aca se muestra los entrenos registradas en el sistema.</t>
   </si>
   <si>
-    <t>REPORTE DE MENSUALIDAD</t>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>USUARIO</t>
   </si>
   <si>
-    <t>VALOR</t>
+    <t>FECHA HORA</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Aca se muestra los entrenos registradas en el sistema.</t>
-  </si>
-  <si>
-    <t>FECHA HORA</t>
+    <t>VALOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$$-240A]\ #,##0"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$$-240A]\ #,##0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +98,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -128,12 +114,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="3" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -275,32 +261,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -312,10 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -327,49 +340,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
+  <cellStyles count="3">
+    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="Moneda [0] 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -377,9 +388,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -389,26 +397,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>845820</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EA430F-4938-4564-88B8-C968DE938F37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -427,100 +429,16 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5303520" y="30480"/>
-          <a:ext cx="1783080" cy="1120140"/>
+          <a:off x="82550" y="0"/>
+          <a:ext cx="869950" cy="869950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="190500" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="70000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5273039" cy="1142999"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectángulo 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F115429-54FD-4212-9DF9-0CA0B569C149}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15240" y="22860"/>
-          <a:ext cx="5273039" cy="1142999"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="16200000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="obliqueBottomRight"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-ES" sz="5400" b="1" cap="none" spc="0">
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="12700" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>POPGYM</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -535,39 +453,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -646,316 +564,360 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="11" ySplit="9" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="35.21875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="14" style="16" customWidth="1"/>
-    <col min="6" max="6" width="13" style="29" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="18" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="18" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" style="18" customWidth="1"/>
-    <col min="11" max="11" width="12" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" customWidth="1"/>
+    <col min="11" max="11" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="13"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="13"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="13"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="31" t="s">
+    <row r="1" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="9"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="9" t="s">
-        <v>2</v>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="21" t="s">
+        <v>4</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="32">
+      <c r="I7" s="29">
         <f>SUM(D11:D1048576)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>0</v>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="22" t="s">
+        <v>5</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>4</v>
+      <c r="B9" s="22" t="s">
+        <v>6</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="L10" s="3"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L11" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:D10" xr:uid="{5D3F4C1A-E5F7-4B5B-A970-2F278951F82C}"/>
+  <autoFilter ref="A10:D10"/>
   <mergeCells count="4">
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
@@ -963,7 +925,31 @@
     <mergeCell ref="I7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>